--- a/grupos/2ALCV - Estadisticos 20242.xlsx
+++ b/grupos/2ALCV - Estadisticos 20242.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="101">
   <si>
     <t>Materia</t>
   </si>
@@ -185,18 +185,18 @@
     <t>Formación socioemocional II</t>
   </si>
   <si>
+    <t>Villanueva Morales Luis Arturo</t>
+  </si>
+  <si>
+    <t>Rodríguez Román Leticia</t>
+  </si>
+  <si>
+    <t>Lopez Pacheco Judith Gabriela</t>
+  </si>
+  <si>
     <t>Ameca Garcia Ivan</t>
   </si>
   <si>
-    <t>Villanueva Morales Luis Arturo</t>
-  </si>
-  <si>
-    <t>Rodríguez Román Leticia</t>
-  </si>
-  <si>
-    <t>Lopez Pacheco Judith Gabriela</t>
-  </si>
-  <si>
     <t>Rivera Serra Alma Lilian</t>
   </si>
   <si>
@@ -221,21 +221,30 @@
     <t>Nombres</t>
   </si>
   <si>
+    <t>VASQUEZ</t>
+  </si>
+  <si>
+    <t>ZUNO</t>
+  </si>
+  <si>
+    <t>CORTES</t>
+  </si>
+  <si>
     <t>RUIZ</t>
   </si>
   <si>
     <t>SANCHEZ</t>
   </si>
   <si>
-    <t>VASQUEZ</t>
-  </si>
-  <si>
-    <t>ZUNO</t>
-  </si>
-  <si>
     <t>BAUTISTA</t>
   </si>
   <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>LEYVA</t>
+  </si>
+  <si>
     <t>TORRES</t>
   </si>
   <si>
@@ -245,25 +254,16 @@
     <t>BERNABE</t>
   </si>
   <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>LEYVA</t>
-  </si>
-  <si>
-    <t>PELLICO</t>
-  </si>
-  <si>
     <t>MARTINEZ</t>
   </si>
   <si>
-    <t>MACARIO</t>
-  </si>
-  <si>
-    <t>MORA</t>
-  </si>
-  <si>
-    <t>ZOPIYACTLE</t>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>MENDEZ</t>
   </si>
   <si>
     <t>MORALES</t>
@@ -272,10 +272,10 @@
     <t>PINO</t>
   </si>
   <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>FLORES</t>
+    <t>CHAPARRO</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
   </si>
   <si>
     <t>BONILLA</t>
@@ -284,16 +284,16 @@
     <t>REYES</t>
   </si>
   <si>
-    <t>CHAPARRO</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
     <t>GONZALEZ</t>
   </si>
   <si>
-    <t>RODRIGUEZ</t>
+    <t>DANIELA LILI</t>
+  </si>
+  <si>
+    <t>ALIN MARIEL</t>
+  </si>
+  <si>
+    <t>ELIZABETH MADAI</t>
   </si>
   <si>
     <t>MAYRIN GUADALUPE</t>
@@ -302,15 +302,15 @@
     <t>YARETZY NAOMI</t>
   </si>
   <si>
-    <t>DANIELA LILI</t>
-  </si>
-  <si>
-    <t>ALIN MARIEL</t>
-  </si>
-  <si>
     <t>LUZ ELENA</t>
   </si>
   <si>
+    <t>MAYKA XIMENA</t>
+  </si>
+  <si>
+    <t>EUNICE GUADALUPE</t>
+  </si>
+  <si>
     <t>ERIKA VALERIA</t>
   </si>
   <si>
@@ -320,25 +320,7 @@
     <t>JOHANA</t>
   </si>
   <si>
-    <t>MAYKA XIMENA</t>
-  </si>
-  <si>
-    <t>EUNICE GUADALUPE</t>
-  </si>
-  <si>
-    <t>BERNARDINA</t>
-  </si>
-  <si>
     <t>SANTIAGO</t>
-  </si>
-  <si>
-    <t>EMIRETH</t>
-  </si>
-  <si>
-    <t>BRENDA</t>
-  </si>
-  <si>
-    <t>MARIA DEL CARMEN</t>
   </si>
 </sst>
 </file>
@@ -890,13 +872,13 @@
         <v>6</v>
       </c>
       <c r="K4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L4">
         <v>7</v>
       </c>
       <c r="M4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N4">
         <v>7</v>
@@ -991,13 +973,13 @@
         <v>6</v>
       </c>
       <c r="K5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L5">
         <v>7</v>
       </c>
       <c r="M5">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N5">
         <v>8</v>
@@ -1045,7 +1027,7 @@
         <v>7</v>
       </c>
       <c r="AC5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AD5">
         <v>8</v>
@@ -1092,13 +1074,13 @@
         <v>6</v>
       </c>
       <c r="K6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L6">
         <v>9</v>
       </c>
       <c r="M6">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N6">
         <v>7</v>
@@ -1146,7 +1128,7 @@
         <v>9</v>
       </c>
       <c r="AC6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AD6">
         <v>7</v>
@@ -1193,13 +1175,13 @@
         <v>6</v>
       </c>
       <c r="K7">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L7">
         <v>6</v>
       </c>
       <c r="M7">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N7">
         <v>7</v>
@@ -1241,13 +1223,13 @@
         <v>5</v>
       </c>
       <c r="AA7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB7">
         <v>5</v>
       </c>
       <c r="AC7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD7">
         <v>7</v>
@@ -1294,13 +1276,13 @@
         <v>7</v>
       </c>
       <c r="K8">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L8">
         <v>8</v>
       </c>
       <c r="M8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N8">
         <v>9</v>
@@ -1348,7 +1330,7 @@
         <v>8</v>
       </c>
       <c r="AC8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD8">
         <v>9</v>
@@ -1395,13 +1377,13 @@
         <v>6</v>
       </c>
       <c r="K9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L9">
         <v>9</v>
       </c>
       <c r="M9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N9">
         <v>7</v>
@@ -1496,13 +1478,13 @@
         <v>6</v>
       </c>
       <c r="K10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L10">
         <v>9</v>
       </c>
       <c r="M10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N10">
         <v>7</v>
@@ -1597,13 +1579,13 @@
         <v>6</v>
       </c>
       <c r="K11">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L11">
         <v>9</v>
       </c>
       <c r="M11">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N11">
         <v>10</v>
@@ -1651,7 +1633,7 @@
         <v>9</v>
       </c>
       <c r="AC11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AD11">
         <v>10</v>
@@ -1698,13 +1680,13 @@
         <v>6</v>
       </c>
       <c r="K12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L12">
         <v>8</v>
       </c>
       <c r="M12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N12">
         <v>8</v>
@@ -1752,7 +1734,7 @@
         <v>8</v>
       </c>
       <c r="AC12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD12">
         <v>8</v>
@@ -1799,13 +1781,13 @@
         <v>6</v>
       </c>
       <c r="K13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L13">
         <v>8</v>
       </c>
       <c r="M13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N13">
         <v>7</v>
@@ -1900,13 +1882,13 @@
         <v>7</v>
       </c>
       <c r="K14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L14">
         <v>8</v>
       </c>
       <c r="M14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N14">
         <v>10</v>
@@ -1954,7 +1936,7 @@
         <v>8</v>
       </c>
       <c r="AC14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AD14">
         <v>10</v>
@@ -2001,13 +1983,13 @@
         <v>6</v>
       </c>
       <c r="K15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L15">
         <v>8</v>
       </c>
       <c r="M15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N15">
         <v>7</v>
@@ -2102,13 +2084,13 @@
         <v>7</v>
       </c>
       <c r="K16">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L16">
         <v>8</v>
       </c>
       <c r="M16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N16">
         <v>8</v>
@@ -2150,13 +2132,13 @@
         <v>7</v>
       </c>
       <c r="AA16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB16">
         <v>8</v>
       </c>
       <c r="AC16">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AD16">
         <v>9</v>
@@ -2203,13 +2185,13 @@
         <v>7</v>
       </c>
       <c r="K17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L17">
         <v>9</v>
       </c>
       <c r="M17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N17">
         <v>7</v>
@@ -2251,13 +2233,13 @@
         <v>7</v>
       </c>
       <c r="AA17">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB17">
         <v>9</v>
       </c>
       <c r="AC17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AD17">
         <v>8</v>
@@ -2304,13 +2286,13 @@
         <v>6</v>
       </c>
       <c r="K18">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L18">
         <v>8</v>
       </c>
       <c r="M18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N18">
         <v>7</v>
@@ -2352,7 +2334,7 @@
         <v>6</v>
       </c>
       <c r="AA18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB18">
         <v>8</v>
@@ -2405,13 +2387,13 @@
         <v>7</v>
       </c>
       <c r="K19">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L19">
         <v>9</v>
       </c>
       <c r="M19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N19">
         <v>10</v>
@@ -2453,7 +2435,7 @@
         <v>7</v>
       </c>
       <c r="AA19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB19">
         <v>9</v>
@@ -2506,13 +2488,13 @@
         <v>6</v>
       </c>
       <c r="K20">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L20">
         <v>8</v>
       </c>
       <c r="M20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N20">
         <v>7</v>
@@ -2554,13 +2536,13 @@
         <v>6</v>
       </c>
       <c r="AA20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB20">
         <v>8</v>
       </c>
       <c r="AC20">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AD20">
         <v>8</v>
@@ -2607,13 +2589,13 @@
         <v>7</v>
       </c>
       <c r="K21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L21">
         <v>8</v>
       </c>
       <c r="M21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N21">
         <v>10</v>
@@ -2708,13 +2690,13 @@
         <v>7</v>
       </c>
       <c r="K22">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L22">
         <v>8</v>
       </c>
       <c r="M22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N22">
         <v>10</v>
@@ -2756,13 +2738,13 @@
         <v>7</v>
       </c>
       <c r="AA22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB22">
         <v>8</v>
       </c>
       <c r="AC22">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AD22">
         <v>10</v>
@@ -2809,13 +2791,13 @@
         <v>6</v>
       </c>
       <c r="K23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L23">
         <v>7</v>
       </c>
       <c r="M23">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N23">
         <v>7</v>
@@ -2863,7 +2845,7 @@
         <v>6</v>
       </c>
       <c r="AC23">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AD23">
         <v>7</v>
@@ -2910,13 +2892,13 @@
         <v>6</v>
       </c>
       <c r="K24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L24">
         <v>7</v>
       </c>
       <c r="M24">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N24">
         <v>7</v>
@@ -2964,7 +2946,7 @@
         <v>6</v>
       </c>
       <c r="AC24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD24">
         <v>7</v>
@@ -3011,13 +2993,13 @@
         <v>8</v>
       </c>
       <c r="K25">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L25">
         <v>8</v>
       </c>
       <c r="M25">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N25">
         <v>10</v>
@@ -3059,13 +3041,13 @@
         <v>7</v>
       </c>
       <c r="AA25">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB25">
         <v>8</v>
       </c>
       <c r="AC25">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD25">
         <v>10</v>
@@ -3112,13 +3094,13 @@
         <v>6</v>
       </c>
       <c r="K26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L26">
         <v>8</v>
       </c>
       <c r="M26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N26">
         <v>7</v>
@@ -3213,13 +3195,13 @@
         <v>6</v>
       </c>
       <c r="K27">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L27">
         <v>8</v>
       </c>
       <c r="M27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N27">
         <v>7</v>
@@ -3261,13 +3243,13 @@
         <v>6</v>
       </c>
       <c r="AA27">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB27">
         <v>7</v>
       </c>
       <c r="AC27">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AD27">
         <v>7</v>
@@ -3314,13 +3296,13 @@
         <v>6</v>
       </c>
       <c r="K28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L28">
         <v>7</v>
       </c>
       <c r="M28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N28">
         <v>7</v>
@@ -3415,13 +3397,13 @@
         <v>6</v>
       </c>
       <c r="K29">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L29">
         <v>9</v>
       </c>
       <c r="M29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N29">
         <v>7</v>
@@ -3463,7 +3445,7 @@
         <v>5</v>
       </c>
       <c r="AA29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB29">
         <v>9</v>
@@ -3516,13 +3498,13 @@
         <v>7</v>
       </c>
       <c r="K30">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L30">
         <v>7</v>
       </c>
       <c r="M30">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N30">
         <v>10</v>
@@ -3564,13 +3546,13 @@
         <v>7</v>
       </c>
       <c r="AA30">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB30">
         <v>6</v>
       </c>
       <c r="AC30">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AD30">
         <v>10</v>
@@ -3617,13 +3599,13 @@
         <v>6</v>
       </c>
       <c r="K31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L31">
         <v>7</v>
       </c>
       <c r="M31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N31">
         <v>7</v>
@@ -3855,13 +3837,13 @@
         <v>90</v>
       </c>
       <c r="K4">
-        <v>85.7</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="L4">
         <v>100</v>
       </c>
       <c r="M4">
-        <v>76.90000000000001</v>
+        <v>89.7</v>
       </c>
       <c r="N4">
         <v>90</v>
@@ -3879,13 +3861,13 @@
         <v>90</v>
       </c>
       <c r="S4">
-        <v>85.7</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="T4">
         <v>100</v>
       </c>
       <c r="U4">
-        <v>76.90000000000001</v>
+        <v>89.7</v>
       </c>
       <c r="V4">
         <v>90</v>
@@ -3932,7 +3914,7 @@
         <v>90</v>
       </c>
       <c r="K5">
-        <v>95.2</v>
+        <v>93</v>
       </c>
       <c r="L5">
         <v>100</v>
@@ -3956,7 +3938,7 @@
         <v>90</v>
       </c>
       <c r="S5">
-        <v>95.2</v>
+        <v>93</v>
       </c>
       <c r="T5">
         <v>100</v>
@@ -4009,7 +3991,7 @@
         <v>100</v>
       </c>
       <c r="K6">
-        <v>90.5</v>
+        <v>95.3</v>
       </c>
       <c r="L6">
         <v>100</v>
@@ -4033,7 +4015,7 @@
         <v>100</v>
       </c>
       <c r="S6">
-        <v>90.5</v>
+        <v>95.3</v>
       </c>
       <c r="T6">
         <v>100</v>
@@ -4086,13 +4068,13 @@
         <v>90</v>
       </c>
       <c r="K7">
-        <v>76.2</v>
+        <v>86</v>
       </c>
       <c r="L7">
         <v>100</v>
       </c>
       <c r="M7">
-        <v>53.8</v>
+        <v>79.3</v>
       </c>
       <c r="N7">
         <v>90</v>
@@ -4110,13 +4092,13 @@
         <v>90</v>
       </c>
       <c r="S7">
-        <v>76.2</v>
+        <v>86</v>
       </c>
       <c r="T7">
         <v>100</v>
       </c>
       <c r="U7">
-        <v>53.8</v>
+        <v>79.3</v>
       </c>
       <c r="V7">
         <v>90</v>
@@ -4240,13 +4222,13 @@
         <v>90</v>
       </c>
       <c r="K9">
-        <v>90.5</v>
+        <v>90.7</v>
       </c>
       <c r="L9">
         <v>100</v>
       </c>
       <c r="M9">
-        <v>61.5</v>
+        <v>82.8</v>
       </c>
       <c r="N9">
         <v>90</v>
@@ -4264,13 +4246,13 @@
         <v>90</v>
       </c>
       <c r="S9">
-        <v>90.5</v>
+        <v>90.7</v>
       </c>
       <c r="T9">
         <v>100</v>
       </c>
       <c r="U9">
-        <v>61.5</v>
+        <v>82.8</v>
       </c>
       <c r="V9">
         <v>90</v>
@@ -4317,7 +4299,7 @@
         <v>90</v>
       </c>
       <c r="K10">
-        <v>85.7</v>
+        <v>93</v>
       </c>
       <c r="L10">
         <v>100</v>
@@ -4341,7 +4323,7 @@
         <v>90</v>
       </c>
       <c r="S10">
-        <v>85.7</v>
+        <v>93</v>
       </c>
       <c r="T10">
         <v>100</v>
@@ -4400,7 +4382,7 @@
         <v>100</v>
       </c>
       <c r="M11">
-        <v>92.3</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="N11">
         <v>100</v>
@@ -4424,7 +4406,7 @@
         <v>100</v>
       </c>
       <c r="U11">
-        <v>92.3</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="V11">
         <v>100</v>
@@ -4471,7 +4453,7 @@
         <v>100</v>
       </c>
       <c r="K12">
-        <v>100</v>
+        <v>97.7</v>
       </c>
       <c r="L12">
         <v>100</v>
@@ -4495,7 +4477,7 @@
         <v>100</v>
       </c>
       <c r="S12">
-        <v>100</v>
+        <v>97.7</v>
       </c>
       <c r="T12">
         <v>100</v>
@@ -4548,13 +4530,13 @@
         <v>100</v>
       </c>
       <c r="K13">
-        <v>90.5</v>
+        <v>95.3</v>
       </c>
       <c r="L13">
         <v>100</v>
       </c>
       <c r="M13">
-        <v>84.59999999999999</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="N13">
         <v>100</v>
@@ -4572,13 +4554,13 @@
         <v>100</v>
       </c>
       <c r="S13">
-        <v>90.5</v>
+        <v>95.3</v>
       </c>
       <c r="T13">
         <v>100</v>
       </c>
       <c r="U13">
-        <v>84.59999999999999</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="V13">
         <v>100</v>
@@ -4625,13 +4607,13 @@
         <v>100</v>
       </c>
       <c r="K14">
-        <v>95.2</v>
+        <v>97.7</v>
       </c>
       <c r="L14">
         <v>100</v>
       </c>
       <c r="M14">
-        <v>92.3</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="N14">
         <v>93.3</v>
@@ -4649,13 +4631,13 @@
         <v>100</v>
       </c>
       <c r="S14">
-        <v>95.2</v>
+        <v>97.7</v>
       </c>
       <c r="T14">
         <v>100</v>
       </c>
       <c r="U14">
-        <v>92.3</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="V14">
         <v>93.3</v>
@@ -4702,7 +4684,7 @@
         <v>100</v>
       </c>
       <c r="K15">
-        <v>76.2</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="L15">
         <v>100</v>
@@ -4726,7 +4708,7 @@
         <v>100</v>
       </c>
       <c r="S15">
-        <v>76.2</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="T15">
         <v>100</v>
@@ -4779,7 +4761,7 @@
         <v>90</v>
       </c>
       <c r="K16">
-        <v>90.5</v>
+        <v>93</v>
       </c>
       <c r="L16">
         <v>100</v>
@@ -4803,7 +4785,7 @@
         <v>90</v>
       </c>
       <c r="S16">
-        <v>90.5</v>
+        <v>93</v>
       </c>
       <c r="T16">
         <v>100</v>
@@ -4856,13 +4838,13 @@
         <v>90</v>
       </c>
       <c r="K17">
-        <v>90.5</v>
+        <v>95.3</v>
       </c>
       <c r="L17">
         <v>100</v>
       </c>
       <c r="M17">
-        <v>84.59999999999999</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="N17">
         <v>90</v>
@@ -4880,13 +4862,13 @@
         <v>90</v>
       </c>
       <c r="S17">
-        <v>90.5</v>
+        <v>95.3</v>
       </c>
       <c r="T17">
         <v>100</v>
       </c>
       <c r="U17">
-        <v>84.59999999999999</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="V17">
         <v>90</v>
@@ -4933,13 +4915,13 @@
         <v>90</v>
       </c>
       <c r="K18">
-        <v>90.5</v>
+        <v>93</v>
       </c>
       <c r="L18">
         <v>100</v>
       </c>
       <c r="M18">
-        <v>92.3</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="N18">
         <v>96.7</v>
@@ -4957,13 +4939,13 @@
         <v>90</v>
       </c>
       <c r="S18">
-        <v>90.5</v>
+        <v>93</v>
       </c>
       <c r="T18">
         <v>100</v>
       </c>
       <c r="U18">
-        <v>92.3</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="V18">
         <v>96.7</v>
@@ -5016,7 +4998,7 @@
         <v>100</v>
       </c>
       <c r="M19">
-        <v>84.59999999999999</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="N19">
         <v>100</v>
@@ -5040,7 +5022,7 @@
         <v>100</v>
       </c>
       <c r="U19">
-        <v>84.59999999999999</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="V19">
         <v>100</v>
@@ -5087,7 +5069,7 @@
         <v>90</v>
       </c>
       <c r="K20">
-        <v>90.5</v>
+        <v>95.3</v>
       </c>
       <c r="L20">
         <v>100</v>
@@ -5111,7 +5093,7 @@
         <v>90</v>
       </c>
       <c r="S20">
-        <v>90.5</v>
+        <v>95.3</v>
       </c>
       <c r="T20">
         <v>100</v>
@@ -5170,7 +5152,7 @@
         <v>100</v>
       </c>
       <c r="M21">
-        <v>92.3</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="N21">
         <v>100</v>
@@ -5194,7 +5176,7 @@
         <v>100</v>
       </c>
       <c r="U21">
-        <v>92.3</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="V21">
         <v>100</v>
@@ -5318,13 +5300,13 @@
         <v>85</v>
       </c>
       <c r="K23">
-        <v>66.7</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="L23">
         <v>100</v>
       </c>
       <c r="M23">
-        <v>84.59999999999999</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="N23">
         <v>90</v>
@@ -5342,13 +5324,13 @@
         <v>85</v>
       </c>
       <c r="S23">
-        <v>66.7</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="T23">
         <v>100</v>
       </c>
       <c r="U23">
-        <v>84.59999999999999</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="V23">
         <v>90</v>
@@ -5395,13 +5377,13 @@
         <v>85</v>
       </c>
       <c r="K24">
-        <v>66.7</v>
+        <v>83.7</v>
       </c>
       <c r="L24">
         <v>100</v>
       </c>
       <c r="M24">
-        <v>69.2</v>
+        <v>86.2</v>
       </c>
       <c r="N24">
         <v>90</v>
@@ -5419,13 +5401,13 @@
         <v>85</v>
       </c>
       <c r="S24">
-        <v>66.7</v>
+        <v>83.7</v>
       </c>
       <c r="T24">
         <v>100</v>
       </c>
       <c r="U24">
-        <v>69.2</v>
+        <v>86.2</v>
       </c>
       <c r="V24">
         <v>90</v>
@@ -5472,13 +5454,13 @@
         <v>90</v>
       </c>
       <c r="K25">
-        <v>100</v>
+        <v>97.7</v>
       </c>
       <c r="L25">
         <v>100</v>
       </c>
       <c r="M25">
-        <v>92.3</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="N25">
         <v>96.7</v>
@@ -5496,13 +5478,13 @@
         <v>90</v>
       </c>
       <c r="S25">
-        <v>100</v>
+        <v>97.7</v>
       </c>
       <c r="T25">
         <v>100</v>
       </c>
       <c r="U25">
-        <v>92.3</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="V25">
         <v>96.7</v>
@@ -5549,7 +5531,7 @@
         <v>100</v>
       </c>
       <c r="K26">
-        <v>90.5</v>
+        <v>95.3</v>
       </c>
       <c r="L26">
         <v>100</v>
@@ -5573,7 +5555,7 @@
         <v>100</v>
       </c>
       <c r="S26">
-        <v>90.5</v>
+        <v>95.3</v>
       </c>
       <c r="T26">
         <v>100</v>
@@ -5626,13 +5608,13 @@
         <v>90</v>
       </c>
       <c r="K27">
-        <v>90.5</v>
+        <v>95.3</v>
       </c>
       <c r="L27">
         <v>100</v>
       </c>
       <c r="M27">
-        <v>69.2</v>
+        <v>86.2</v>
       </c>
       <c r="N27">
         <v>90</v>
@@ -5650,13 +5632,13 @@
         <v>90</v>
       </c>
       <c r="S27">
-        <v>90.5</v>
+        <v>95.3</v>
       </c>
       <c r="T27">
         <v>100</v>
       </c>
       <c r="U27">
-        <v>69.2</v>
+        <v>86.2</v>
       </c>
       <c r="V27">
         <v>90</v>
@@ -5703,13 +5685,13 @@
         <v>85</v>
       </c>
       <c r="K28">
-        <v>66.7</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="L28">
         <v>100</v>
       </c>
       <c r="M28">
-        <v>61.5</v>
+        <v>82.8</v>
       </c>
       <c r="N28">
         <v>90</v>
@@ -5727,13 +5709,13 @@
         <v>85</v>
       </c>
       <c r="S28">
-        <v>66.7</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="T28">
         <v>100</v>
       </c>
       <c r="U28">
-        <v>61.5</v>
+        <v>82.8</v>
       </c>
       <c r="V28">
         <v>90</v>
@@ -5780,13 +5762,13 @@
         <v>100</v>
       </c>
       <c r="K29">
-        <v>66.7</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="L29">
         <v>100</v>
       </c>
       <c r="M29">
-        <v>92.3</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="N29">
         <v>90</v>
@@ -5804,13 +5786,13 @@
         <v>100</v>
       </c>
       <c r="S29">
-        <v>66.7</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="T29">
         <v>100</v>
       </c>
       <c r="U29">
-        <v>92.3</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="V29">
         <v>90</v>
@@ -5863,7 +5845,7 @@
         <v>100</v>
       </c>
       <c r="M30">
-        <v>84.59999999999999</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="N30">
         <v>96.7</v>
@@ -5887,7 +5869,7 @@
         <v>100</v>
       </c>
       <c r="U30">
-        <v>84.59999999999999</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="V30">
         <v>96.7</v>
@@ -5934,13 +5916,13 @@
         <v>85</v>
       </c>
       <c r="K31">
-        <v>76.2</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="L31">
         <v>100</v>
       </c>
       <c r="M31">
-        <v>69.2</v>
+        <v>86.2</v>
       </c>
       <c r="N31">
         <v>90</v>
@@ -5958,13 +5940,13 @@
         <v>85</v>
       </c>
       <c r="S31">
-        <v>76.2</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="T31">
         <v>100</v>
       </c>
       <c r="U31">
-        <v>69.2</v>
+        <v>86.2</v>
       </c>
       <c r="V31">
         <v>90</v>
@@ -6036,7 +6018,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -6045,19 +6027,19 @@
         <v>28</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2">
-        <v>42.9</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="G2" s="2">
-        <v>57.1</v>
+        <v>28.6</v>
       </c>
       <c r="H2">
-        <v>5.7</v>
+        <v>7</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -6068,7 +6050,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>56</v>
@@ -6077,19 +6059,19 @@
         <v>28</v>
       </c>
       <c r="D3">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2">
-        <v>60.7</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="G3" s="2">
-        <v>39.3</v>
+        <v>28.6</v>
       </c>
       <c r="H3">
-        <v>6.6</v>
+        <v>6.1</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -6100,7 +6082,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>57</v>
@@ -6109,19 +6091,19 @@
         <v>28</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2">
-        <v>71.40000000000001</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="G4" s="2">
-        <v>28.6</v>
+        <v>21.4</v>
       </c>
       <c r="H4">
-        <v>6.1</v>
+        <v>7.3</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -6132,7 +6114,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -6153,7 +6135,7 @@
         <v>21.4</v>
       </c>
       <c r="H5">
-        <v>7.3</v>
+        <v>6.8</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -6354,7 +6336,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6389,22 +6371,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>24330051920389</v>
+        <v>24330051920330</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -6412,22 +6394,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>24330051920389</v>
+        <v>24330051920330</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -6435,22 +6417,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>24330051920389</v>
+        <v>24330051920330</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -6458,22 +6440,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>24330051920389</v>
+        <v>24330051920330</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -6481,22 +6463,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>24330051920247</v>
+        <v>24330051920246</v>
       </c>
       <c r="B6" t="s">
         <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -6504,22 +6486,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>24330051920247</v>
+        <v>24330051920246</v>
       </c>
       <c r="B7" t="s">
         <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -6527,22 +6509,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>24330051920247</v>
+        <v>24330051920246</v>
       </c>
       <c r="B8" t="s">
         <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -6550,22 +6532,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>24330051920247</v>
+        <v>24330051920246</v>
       </c>
       <c r="B9" t="s">
         <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -6573,22 +6555,22 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>24330051920330</v>
+        <v>24330051920398</v>
       </c>
       <c r="B10" t="s">
         <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E10" t="s">
         <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G10">
         <v>5</v>
@@ -6596,22 +6578,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>24330051920330</v>
+        <v>24330051920398</v>
       </c>
       <c r="B11" t="s">
         <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -6619,22 +6601,22 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>24330051920330</v>
+        <v>24330051920398</v>
       </c>
       <c r="B12" t="s">
         <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G12">
         <v>5</v>
@@ -6642,22 +6624,22 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>24330051920330</v>
+        <v>24330051920389</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G13">
         <v>5</v>
@@ -6665,22 +6647,22 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>24330051920246</v>
+        <v>24330051920389</v>
       </c>
       <c r="B14" t="s">
         <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E14" t="s">
         <v>6</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G14">
         <v>5</v>
@@ -6688,22 +6670,22 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>24330051920246</v>
+        <v>24330051920389</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G15">
         <v>5</v>
@@ -6711,22 +6693,22 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>24330051920246</v>
+        <v>24330051920247</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -6734,22 +6716,22 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>24330051920246</v>
+        <v>24330051920247</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G17">
         <v>5</v>
@@ -6757,22 +6739,22 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>24330051920244</v>
+        <v>24330051920247</v>
       </c>
       <c r="B18" t="s">
         <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="D18" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E18" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G18">
         <v>5</v>
@@ -6783,16 +6765,16 @@
         <v>24330051920244</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F19" t="s">
         <v>56</v>
@@ -6806,16 +6788,16 @@
         <v>24330051920244</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F20" t="s">
         <v>55</v>
@@ -6826,22 +6808,22 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>24330051920238</v>
+        <v>24330051920220</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C21" t="s">
         <v>84</v>
       </c>
       <c r="D21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G21">
         <v>5</v>
@@ -6849,22 +6831,22 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>24330051920238</v>
+        <v>24330051920220</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
         <v>84</v>
       </c>
       <c r="D22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G22">
         <v>5</v>
@@ -6872,22 +6854,22 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>24330051920238</v>
+        <v>24330051920226</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G23">
         <v>5</v>
@@ -6895,22 +6877,22 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>24330051920239</v>
+        <v>24330051920226</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D24" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E24" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G24">
         <v>5</v>
@@ -6918,22 +6900,22 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>24330051920239</v>
+        <v>24330051920238</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E25" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G25">
         <v>5</v>
@@ -6941,22 +6923,22 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>24330051920239</v>
+        <v>24330051920238</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G26">
         <v>5</v>
@@ -6964,19 +6946,19 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>24330051920243</v>
+        <v>24330051920239</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F27" t="s">
         <v>56</v>
@@ -6987,22 +6969,22 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>24330051920243</v>
+        <v>24330051920239</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G28">
         <v>5</v>
@@ -7010,22 +6992,22 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>24330051920220</v>
+        <v>24330051920243</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G29">
         <v>5</v>
@@ -7033,10 +7015,10 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>24330051920220</v>
+        <v>24330051920396</v>
       </c>
       <c r="B30" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C30" t="s">
         <v>88</v>
@@ -7048,193 +7030,9 @@
         <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31">
-        <v>24330051920226</v>
-      </c>
-      <c r="B31" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" t="s">
-        <v>89</v>
-      </c>
-      <c r="D31" t="s">
-        <v>101</v>
-      </c>
-      <c r="E31" t="s">
-        <v>6</v>
-      </c>
-      <c r="F31" t="s">
-        <v>56</v>
-      </c>
-      <c r="G31">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32">
-        <v>24330051920226</v>
-      </c>
-      <c r="B32" t="s">
-        <v>76</v>
-      </c>
-      <c r="C32" t="s">
-        <v>89</v>
-      </c>
-      <c r="D32" t="s">
-        <v>101</v>
-      </c>
-      <c r="E32" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" t="s">
-        <v>55</v>
-      </c>
-      <c r="G32">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33">
-        <v>24330051920232</v>
-      </c>
-      <c r="B33" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33" t="s">
-        <v>87</v>
-      </c>
-      <c r="D33" t="s">
-        <v>102</v>
-      </c>
-      <c r="E33" t="s">
-        <v>6</v>
-      </c>
-      <c r="F33" t="s">
-        <v>56</v>
-      </c>
-      <c r="G33">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34">
-        <v>24330051920232</v>
-      </c>
-      <c r="B34" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" t="s">
-        <v>87</v>
-      </c>
-      <c r="D34" t="s">
-        <v>102</v>
-      </c>
-      <c r="E34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" t="s">
-        <v>55</v>
-      </c>
-      <c r="G34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35">
-        <v>24330051920396</v>
-      </c>
-      <c r="B35" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" t="s">
-        <v>90</v>
-      </c>
-      <c r="D35" t="s">
-        <v>103</v>
-      </c>
-      <c r="E35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" t="s">
-        <v>55</v>
-      </c>
-      <c r="G35">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36">
-        <v>24330051920408</v>
-      </c>
-      <c r="B36" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" t="s">
-        <v>68</v>
-      </c>
-      <c r="D36" t="s">
-        <v>104</v>
-      </c>
-      <c r="E36" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" t="s">
-        <v>55</v>
-      </c>
-      <c r="G36">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37">
-        <v>24330051920229</v>
-      </c>
-      <c r="B37" t="s">
-        <v>80</v>
-      </c>
-      <c r="C37" t="s">
-        <v>91</v>
-      </c>
-      <c r="D37" t="s">
-        <v>105</v>
-      </c>
-      <c r="E37" t="s">
-        <v>8</v>
-      </c>
-      <c r="F37" t="s">
-        <v>55</v>
-      </c>
-      <c r="G37">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38">
-        <v>24330051920242</v>
-      </c>
-      <c r="B38" t="s">
-        <v>81</v>
-      </c>
-      <c r="C38" t="s">
-        <v>87</v>
-      </c>
-      <c r="D38" t="s">
-        <v>106</v>
-      </c>
-      <c r="E38" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" t="s">
-        <v>55</v>
-      </c>
-      <c r="G38">
         <v>5</v>
       </c>
     </row>

--- a/grupos/2ALCV - Estadisticos 20242.xlsx
+++ b/grupos/2ALCV - Estadisticos 20242.xlsx
@@ -194,7 +194,7 @@
     <t>Lopez Pacheco Judith Gabriela</t>
   </si>
   <si>
-    <t>Ameca Garcia Ivan</t>
+    <t>Domínguez Burgos Marioscar</t>
   </si>
   <si>
     <t>Rivera Serra Alma Lilian</t>
